--- a/downloaded_files/MEES280_Lecture-35493.xlsx
+++ b/downloaded_files/MEES280_Lecture-35493.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,6 +217,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمود عبدالرحمن محمود هويدي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abderahman Mahmoud Abdelrahman  Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230064</x:t>
@@ -719,7 +728,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E65" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E66" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1019,7 +1028,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T65"/>
+  <x:dimension ref="A1:T66"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1780,7 +1789,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4206720718</x:v>
+        <x:v>45923.3055878819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45907.4206720718</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4206363079</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.0152129977</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45912.0152129977</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1972,7 +1981,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4206867708</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2004,7 +2013,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4206867708</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2036,7 +2045,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.0190701389</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2068,7 +2077,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.0153141551</x:v>
+        <x:v>45912.0190701389</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2100,7 +2109,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.0203569444</x:v>
+        <x:v>45912.0153141551</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2132,7 +2141,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.0177897801</x:v>
+        <x:v>45912.0203569444</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2164,7 +2173,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6170033218</x:v>
+        <x:v>45912.0177897801</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2196,7 +2205,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45907.6170033218</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2228,7 +2237,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4199905093</x:v>
+        <x:v>45906.688821875</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2260,7 +2269,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.0204400116</x:v>
+        <x:v>45907.4199905093</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2292,7 +2301,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4200765394</x:v>
+        <x:v>45912.0204400116</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2324,7 +2333,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45907.4200765394</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2356,7 +2365,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.0199827894</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2388,7 +2397,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4203136574</x:v>
+        <x:v>45912.0199827894</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2420,7 +2429,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.4203136574</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2452,7 +2461,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.669153206</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2484,7 +2493,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.9909410532</x:v>
+        <x:v>45906.669153206</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2516,7 +2525,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4200609144</x:v>
+        <x:v>45915.9909410532</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2548,7 +2557,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.9945449884</x:v>
+        <x:v>45907.4200609144</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2580,7 +2589,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.9990604167</x:v>
+        <x:v>45915.9945449884</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2612,7 +2621,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.0198766204</x:v>
+        <x:v>45915.9990604167</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2644,7 +2653,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45912.0198766204</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2676,7 +2685,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.015959294</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2708,7 +2717,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45912.015959294</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2740,7 +2749,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.0157020833</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2772,7 +2781,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.0195110764</x:v>
+        <x:v>45912.0157020833</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2804,7 +2813,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.018609294</x:v>
+        <x:v>45912.0195110764</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2836,7 +2845,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4205620023</x:v>
+        <x:v>45912.018609294</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2868,7 +2877,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45907.4205620023</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2900,7 +2909,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2932,7 +2941,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2964,7 +2973,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2996,7 +3005,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3028,7 +3037,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4204270833</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3060,7 +3069,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4204270833</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3092,7 +3101,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.418859838</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3124,7 +3133,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45914.4737116898</x:v>
+        <x:v>45907.418859838</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3141,6 +3150,38 @@
       <x:c r="R65" s="2" t="s"/>
       <x:c r="S65" s="2" t="s"/>
       <x:c r="T65" s="2" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:20">
+      <x:c r="A66" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D66" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="E66" s="3">
+        <x:v>45914.4737116898</x:v>
+      </x:c>
+      <x:c r="F66" s="2" t="s"/>
+      <x:c r="G66" s="2" t="s"/>
+      <x:c r="H66" s="2" t="s"/>
+      <x:c r="I66" s="2" t="s"/>
+      <x:c r="J66" s="2" t="s"/>
+      <x:c r="K66" s="2" t="s"/>
+      <x:c r="L66" s="2" t="s"/>
+      <x:c r="M66" s="2" t="s"/>
+      <x:c r="N66" s="2" t="s"/>
+      <x:c r="O66" s="2" t="s"/>
+      <x:c r="P66" s="2" t="s"/>
+      <x:c r="Q66" s="2" t="s"/>
+      <x:c r="R66" s="2" t="s"/>
+      <x:c r="S66" s="2" t="s"/>
+      <x:c r="T66" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEES280_Lecture-35493.xlsx
+++ b/downloaded_files/MEES280_Lecture-35493.xlsx
@@ -2493,7 +2493,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.669153206</x:v>
+        <x:v>45927.6842726042</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>

--- a/downloaded_files/MEES280_Lecture-35493.xlsx
+++ b/downloaded_files/MEES280_Lecture-35493.xlsx
@@ -165,15 +165,6 @@
     <x:t>زينة شادي عبداللطيف الشاذلي</x:t>
   </x:si>
   <x:si>
-    <x:t>1230192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سارة احمد علي سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sara Ahmed Ali Soliman</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230196</x:t>
   </x:si>
   <x:si>
@@ -181,6 +172,15 @@
   </x:si>
   <x:si>
     <x:t>Salma Mohamed Ibrahim Abourida</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما طارق محمود جاب الله سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Tarik Mahmoud Gaballah</x:t>
   </x:si>
   <x:si>
     <x:t>1230199</x:t>
@@ -1597,7 +1597,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.019681713</x:v>
+        <x:v>45912.0157777431</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.0157777431</x:v>
+        <x:v>45929.055134919</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -3069,7 +3069,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4204270833</x:v>
+        <x:v>45929.157131713</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>

--- a/downloaded_files/MEES280_Lecture-35493.xlsx
+++ b/downloaded_files/MEES280_Lecture-35493.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1230147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم أشرف حسن مهيب غانم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Ashraf Hassan Mohib Ghanem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230001</x:t>
   </x:si>
   <x:si>
@@ -69,6 +78,15 @@
     <x:t>Adham Adel Said Muhamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240036</x:t>
   </x:si>
   <x:si>
@@ -523,6 +541,15 @@
   </x:si>
   <x:si>
     <x:t>Moustafa Mohamed Hassan Mohamed Helmy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معتز محمد صبرى عبد العزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moataz mohamed sabry</x:t>
   </x:si>
   <x:si>
     <x:t>1230117</x:t>
@@ -728,7 +755,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E66" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E69" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1028,7 +1055,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T66"/>
+  <x:dimension ref="A1:T69"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1119,7 +1146,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4195617245</x:v>
+        <x:v>45929.3207925116</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1151,7 +1178,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45912.0210312153</x:v>
+        <x:v>45907.4195617245</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1183,7 +1210,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4169731481</x:v>
+        <x:v>45912.0210312153</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1215,7 +1242,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.0151138889</x:v>
+        <x:v>45907.4169731481</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1247,7 +1274,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.0161262384</x:v>
+        <x:v>45912.0151138889</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1279,7 +1306,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.0211335301</x:v>
+        <x:v>45929.3180070255</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1311,7 +1338,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45912.0161262384</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1343,7 +1370,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.0155721065</x:v>
+        <x:v>45912.0211335301</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1375,7 +1402,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.0206893171</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1407,7 +1434,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6659809838</x:v>
+        <x:v>45912.0155721065</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1439,7 +1466,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.0202720718</x:v>
+        <x:v>45912.0206893171</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1471,7 +1498,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.0154431713</x:v>
+        <x:v>45906.6659809838</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1503,7 +1530,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0181701042</x:v>
+        <x:v>45912.0202720718</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1535,7 +1562,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4184486111</x:v>
+        <x:v>45912.0154431713</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1563,9 +1590,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.5663905093</x:v>
+        <x:v>45912.0181701042</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1588,16 +1617,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.0157777431</x:v>
+        <x:v>45907.4184486111</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1620,16 +1649,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45929.055134919</x:v>
+        <x:v>45915.5663905093</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1661,7 +1688,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.0192309028</x:v>
+        <x:v>45912.0157777431</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1693,7 +1720,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4205185995</x:v>
+        <x:v>45929.055134919</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1725,7 +1752,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.0187671644</x:v>
+        <x:v>45912.0192309028</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1757,7 +1784,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.990477662</x:v>
+        <x:v>45907.4205185995</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1789,7 +1816,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.3055878819</x:v>
+        <x:v>45912.0187671644</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1821,7 +1848,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4206720718</x:v>
+        <x:v>45915.990477662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1853,7 +1880,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45923.3055878819</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1885,7 +1912,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4206720718</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1917,7 +1944,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.0152129977</x:v>
+        <x:v>45907.4206363079</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1949,7 +1976,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1981,7 +2008,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45912.0152129977</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2013,7 +2040,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4206867708</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2045,7 +2072,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2077,7 +2104,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.0190701389</x:v>
+        <x:v>45907.4206867708</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2109,7 +2136,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.0153141551</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2141,7 +2168,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.0203569444</x:v>
+        <x:v>45912.0190701389</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2173,7 +2200,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0177897801</x:v>
+        <x:v>45912.0153141551</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2205,7 +2232,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6170033218</x:v>
+        <x:v>45912.0203569444</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2237,7 +2264,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45912.0177897801</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2269,7 +2296,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4199905093</x:v>
+        <x:v>45907.6170033218</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2301,7 +2328,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.0204400116</x:v>
+        <x:v>45906.688821875</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2333,7 +2360,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4200765394</x:v>
+        <x:v>45907.4199905093</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2365,7 +2392,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45912.0204400116</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2397,7 +2424,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.0199827894</x:v>
+        <x:v>45907.4200765394</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2429,7 +2456,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4203136574</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2461,7 +2488,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45912.0199827894</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2493,7 +2520,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45927.6842726042</x:v>
+        <x:v>45907.4203136574</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2525,7 +2552,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.9909410532</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2557,7 +2584,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4200609144</x:v>
+        <x:v>45927.6842726042</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2589,7 +2616,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.9945449884</x:v>
+        <x:v>45915.9909410532</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2621,7 +2648,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45915.9990604167</x:v>
+        <x:v>45907.4200609144</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2653,7 +2680,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.0198766204</x:v>
+        <x:v>45915.9945449884</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2685,7 +2712,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45915.9990604167</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2717,7 +2744,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.015959294</x:v>
+        <x:v>45912.0198766204</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2749,7 +2776,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2781,7 +2808,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.0157020833</x:v>
+        <x:v>45912.015959294</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2813,7 +2840,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.0195110764</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2845,7 +2872,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.018609294</x:v>
+        <x:v>45912.0157020833</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2877,7 +2904,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4205620023</x:v>
+        <x:v>45912.0195110764</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2909,7 +2936,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45912.018609294</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2941,7 +2968,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45929.3262200579</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2973,7 +3000,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4205620023</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3005,7 +3032,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3037,7 +3064,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3069,7 +3096,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45929.157131713</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3101,7 +3128,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3133,7 +3160,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.418859838</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3165,7 +3192,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45914.4737116898</x:v>
+        <x:v>45929.157131713</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3182,6 +3209,102 @@
       <x:c r="R66" s="2" t="s"/>
       <x:c r="S66" s="2" t="s"/>
       <x:c r="T66" s="2" t="s"/>
+    </x:row>
+    <x:row r="67" spans="1:20">
+      <x:c r="A67" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D67" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E67" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F67" s="2" t="s"/>
+      <x:c r="G67" s="2" t="s"/>
+      <x:c r="H67" s="2" t="s"/>
+      <x:c r="I67" s="2" t="s"/>
+      <x:c r="J67" s="2" t="s"/>
+      <x:c r="K67" s="2" t="s"/>
+      <x:c r="L67" s="2" t="s"/>
+      <x:c r="M67" s="2" t="s"/>
+      <x:c r="N67" s="2" t="s"/>
+      <x:c r="O67" s="2" t="s"/>
+      <x:c r="P67" s="2" t="s"/>
+      <x:c r="Q67" s="2" t="s"/>
+      <x:c r="R67" s="2" t="s"/>
+      <x:c r="S67" s="2" t="s"/>
+      <x:c r="T67" s="2" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:20">
+      <x:c r="A68" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C68" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="D68" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="E68" s="3">
+        <x:v>45907.418859838</x:v>
+      </x:c>
+      <x:c r="F68" s="2" t="s"/>
+      <x:c r="G68" s="2" t="s"/>
+      <x:c r="H68" s="2" t="s"/>
+      <x:c r="I68" s="2" t="s"/>
+      <x:c r="J68" s="2" t="s"/>
+      <x:c r="K68" s="2" t="s"/>
+      <x:c r="L68" s="2" t="s"/>
+      <x:c r="M68" s="2" t="s"/>
+      <x:c r="N68" s="2" t="s"/>
+      <x:c r="O68" s="2" t="s"/>
+      <x:c r="P68" s="2" t="s"/>
+      <x:c r="Q68" s="2" t="s"/>
+      <x:c r="R68" s="2" t="s"/>
+      <x:c r="S68" s="2" t="s"/>
+      <x:c r="T68" s="2" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:20">
+      <x:c r="A69" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D69" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="E69" s="3">
+        <x:v>45914.4737116898</x:v>
+      </x:c>
+      <x:c r="F69" s="2" t="s"/>
+      <x:c r="G69" s="2" t="s"/>
+      <x:c r="H69" s="2" t="s"/>
+      <x:c r="I69" s="2" t="s"/>
+      <x:c r="J69" s="2" t="s"/>
+      <x:c r="K69" s="2" t="s"/>
+      <x:c r="L69" s="2" t="s"/>
+      <x:c r="M69" s="2" t="s"/>
+      <x:c r="N69" s="2" t="s"/>
+      <x:c r="O69" s="2" t="s"/>
+      <x:c r="P69" s="2" t="s"/>
+      <x:c r="Q69" s="2" t="s"/>
+      <x:c r="R69" s="2" t="s"/>
+      <x:c r="S69" s="2" t="s"/>
+      <x:c r="T69" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEES280_Lecture-35493.xlsx
+++ b/downloaded_files/MEES280_Lecture-35493.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,6 +96,15 @@
     <x:t>berty samir tawadros</x:t>
   </x:si>
   <x:si>
+    <x:t>1230166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بسنت ياسر محمد عبد العزيز حامد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Passant yasser mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220041</x:t>
   </x:si>
   <x:si>
@@ -183,6 +192,15 @@
     <x:t>زينة شادي عبداللطيف الشاذلي</x:t>
   </x:si>
   <x:si>
+    <x:t>1230192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سارة احمد علي سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sara Ahmed Ali Soliman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230196</x:t>
   </x:si>
   <x:si>
@@ -237,6 +255,15 @@
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
   </x:si>
   <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230061</x:t>
   </x:si>
   <x:si>
@@ -379,6 +406,15 @@
   </x:si>
   <x:si>
     <x:t>Kariman Sherif Refaei Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزي احمد حسين عبدالعزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kenzie Ahmed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1230229</x:t>
@@ -755,7 +791,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E69" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1055,7 +1091,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T69"/>
+  <x:dimension ref="A1:T73"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1370,7 +1406,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.0211335301</x:v>
+        <x:v>45930.4191284722</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1402,7 +1438,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45912.0211335301</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1434,7 +1470,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.0155721065</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1466,7 +1502,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.0206893171</x:v>
+        <x:v>45912.0155721065</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1498,7 +1534,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6659809838</x:v>
+        <x:v>45912.0206893171</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1530,7 +1566,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0202720718</x:v>
+        <x:v>45906.6659809838</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1562,7 +1598,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0154431713</x:v>
+        <x:v>45912.0202720718</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1594,7 +1630,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.0181701042</x:v>
+        <x:v>45912.0154431713</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1626,7 +1662,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4184486111</x:v>
+        <x:v>45912.0181701042</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1654,9 +1690,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.5663905093</x:v>
+        <x:v>45907.4184486111</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1679,16 +1717,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45912.0157777431</x:v>
+        <x:v>45915.5663905093</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1720,7 +1756,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45929.055134919</x:v>
+        <x:v>45930.4279528935</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1752,7 +1788,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.0192309028</x:v>
+        <x:v>45912.0157777431</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1784,7 +1820,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4205185995</x:v>
+        <x:v>45929.055134919</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1816,7 +1852,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0187671644</x:v>
+        <x:v>45912.0192309028</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1848,7 +1884,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.990477662</x:v>
+        <x:v>45907.4205185995</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1880,7 +1916,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.3055878819</x:v>
+        <x:v>45912.0187671644</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1912,7 +1948,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4206720718</x:v>
+        <x:v>45915.990477662</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1944,7 +1980,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45930.4242980324</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1976,7 +2012,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45923.3055878819</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2008,7 +2044,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.0152129977</x:v>
+        <x:v>45907.4206720718</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2040,7 +2076,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45907.4206363079</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2072,7 +2108,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2104,7 +2140,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4206867708</x:v>
+        <x:v>45912.0152129977</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2136,7 +2172,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2168,7 +2204,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.0190701389</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2200,7 +2236,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0153141551</x:v>
+        <x:v>45907.4206867708</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2232,7 +2268,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0203569444</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2264,7 +2300,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.0177897801</x:v>
+        <x:v>45912.0190701389</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2296,7 +2332,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6170033218</x:v>
+        <x:v>45912.0153141551</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2328,7 +2364,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45912.0203569444</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2360,7 +2396,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4199905093</x:v>
+        <x:v>45912.0177897801</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2392,7 +2428,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.0204400116</x:v>
+        <x:v>45907.6170033218</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2424,7 +2460,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4200765394</x:v>
+        <x:v>45906.688821875</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2456,7 +2492,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45907.4199905093</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2488,7 +2524,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.0199827894</x:v>
+        <x:v>45930.4285489931</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2520,7 +2556,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4203136574</x:v>
+        <x:v>45912.0204400116</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2552,7 +2588,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.4200765394</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2584,7 +2620,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45927.6842726042</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2616,7 +2652,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.9909410532</x:v>
+        <x:v>45912.0199827894</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2648,7 +2684,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.4200609144</x:v>
+        <x:v>45907.4203136574</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2680,7 +2716,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45915.9945449884</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2712,7 +2748,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45915.9990604167</x:v>
+        <x:v>45927.6842726042</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2744,7 +2780,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.0198766204</x:v>
+        <x:v>45915.9909410532</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2776,7 +2812,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.4200609144</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2808,7 +2844,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.015959294</x:v>
+        <x:v>45915.9945449884</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2840,7 +2876,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45915.9990604167</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2872,7 +2908,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.0157020833</x:v>
+        <x:v>45912.0198766204</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2904,7 +2940,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.0195110764</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2936,7 +2972,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45912.018609294</x:v>
+        <x:v>45912.015959294</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2968,7 +3004,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45929.3262200579</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3000,7 +3036,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4205620023</x:v>
+        <x:v>45912.0157020833</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3032,7 +3068,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45912.0195110764</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3064,7 +3100,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45912.018609294</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3096,7 +3132,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45929.3262200579</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3128,7 +3164,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.4205620023</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3160,7 +3196,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3192,7 +3228,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45929.157131713</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3224,7 +3260,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3256,7 +3292,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45907.418859838</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3288,7 +3324,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45914.4737116898</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3306,20 +3342,149 @@
       <x:c r="S69" s="2" t="s"/>
       <x:c r="T69" s="2" t="s"/>
     </x:row>
+    <x:row r="70" spans="1:20">
+      <x:c r="A70" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C70" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="D70" s="2" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="E70" s="3">
+        <x:v>45929.157131713</x:v>
+      </x:c>
+      <x:c r="F70" s="2" t="s"/>
+      <x:c r="G70" s="2" t="s"/>
+      <x:c r="H70" s="2" t="s"/>
+      <x:c r="I70" s="2" t="s"/>
+      <x:c r="J70" s="2" t="s"/>
+      <x:c r="K70" s="2" t="s"/>
+      <x:c r="L70" s="2" t="s"/>
+      <x:c r="M70" s="2" t="s"/>
+      <x:c r="N70" s="2" t="s"/>
+      <x:c r="O70" s="2" t="s"/>
+      <x:c r="P70" s="2" t="s"/>
+      <x:c r="Q70" s="2" t="s"/>
+      <x:c r="R70" s="2" t="s"/>
+      <x:c r="S70" s="2" t="s"/>
+      <x:c r="T70" s="2" t="s"/>
+    </x:row>
+    <x:row r="71" spans="1:20">
+      <x:c r="A71" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B71" s="2" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C71" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D71" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E71" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F71" s="2" t="s"/>
+      <x:c r="G71" s="2" t="s"/>
+      <x:c r="H71" s="2" t="s"/>
+      <x:c r="I71" s="2" t="s"/>
+      <x:c r="J71" s="2" t="s"/>
+      <x:c r="K71" s="2" t="s"/>
+      <x:c r="L71" s="2" t="s"/>
+      <x:c r="M71" s="2" t="s"/>
+      <x:c r="N71" s="2" t="s"/>
+      <x:c r="O71" s="2" t="s"/>
+      <x:c r="P71" s="2" t="s"/>
+      <x:c r="Q71" s="2" t="s"/>
+      <x:c r="R71" s="2" t="s"/>
+      <x:c r="S71" s="2" t="s"/>
+      <x:c r="T71" s="2" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:20">
+      <x:c r="A72" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C72" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D72" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E72" s="3">
+        <x:v>45907.418859838</x:v>
+      </x:c>
+      <x:c r="F72" s="2" t="s"/>
+      <x:c r="G72" s="2" t="s"/>
+      <x:c r="H72" s="2" t="s"/>
+      <x:c r="I72" s="2" t="s"/>
+      <x:c r="J72" s="2" t="s"/>
+      <x:c r="K72" s="2" t="s"/>
+      <x:c r="L72" s="2" t="s"/>
+      <x:c r="M72" s="2" t="s"/>
+      <x:c r="N72" s="2" t="s"/>
+      <x:c r="O72" s="2" t="s"/>
+      <x:c r="P72" s="2" t="s"/>
+      <x:c r="Q72" s="2" t="s"/>
+      <x:c r="R72" s="2" t="s"/>
+      <x:c r="S72" s="2" t="s"/>
+      <x:c r="T72" s="2" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:20">
+      <x:c r="A73" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C73" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D73" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E73" s="3">
+        <x:v>45914.4737116898</x:v>
+      </x:c>
+      <x:c r="F73" s="2" t="s"/>
+      <x:c r="G73" s="2" t="s"/>
+      <x:c r="H73" s="2" t="s"/>
+      <x:c r="I73" s="2" t="s"/>
+      <x:c r="J73" s="2" t="s"/>
+      <x:c r="K73" s="2" t="s"/>
+      <x:c r="L73" s="2" t="s"/>
+      <x:c r="M73" s="2" t="s"/>
+      <x:c r="N73" s="2" t="s"/>
+      <x:c r="O73" s="2" t="s"/>
+      <x:c r="P73" s="2" t="s"/>
+      <x:c r="Q73" s="2" t="s"/>
+      <x:c r="R73" s="2" t="s"/>
+      <x:c r="S73" s="2" t="s"/>
+      <x:c r="T73" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MEES280) Location : 1125- 170 Time : Sunday(16:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MEES280) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Sunday(16:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MEES280) Location : 1125- 170 Time : Sunday(16:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MEES280) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Sunday(16:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MEES280) Location : 1125- 170 Time : Sunday(16:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MEES280) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Sunday(16:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
+  <x:rowBreaks count="2" manualBreakCount="2">
     <x:brk id="35" max="1048576" man="1"/>
+    <x:brk id="70" max="1048576" man="1"/>
   </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
